--- a/Tables/Doctor.xlsx
+++ b/Tables/Doctor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Вячеслав\Desktop\Stomatology\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86CA58A-7295-445B-89E3-7C3B318073DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF88FDA-10DB-4C85-89BE-EA30D9298B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="280" windowWidth="10430" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="15730" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -455,6 +455,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
@@ -515,7 +516,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A20" si="0">A3+1</f>
+        <f t="shared" ref="A4:A12" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
